--- a/test/assets/template.xlsx
+++ b/test/assets/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frontend\NPM\xlsx-template\test\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frontend\NPM\exceljs-xlsx-template\test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C0A6F-C9A8-41E5-AA47-ACEF1F41410F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEE5DF-15C3-4678-B185-A2F86D8259EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{657964AE-D3D3-40C6-8F0A-0275CA7E1F85}"/>
+    <workbookView xWindow="-28920" yWindow="6900" windowWidth="29040" windowHeight="15720" xr2:uid="{657964AE-D3D3-40C6-8F0A-0275CA7E1F85}"/>
   </bookViews>
   <sheets>
     <sheet name="新报关单" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">中华人民共和国海关出口货物报关单  </t>
   </si>
@@ -202,7 +202,11 @@
     <t>海关批注及签章</t>
   </si>
   <si>
-    <t xml:space="preserve">                                申报单位(签章)</t>
+    <t>{{projects.image}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                申报单位(签章){{#officialseal}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -559,6 +563,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -568,167 +584,155 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,7 +1051,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2143,22 +2147,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:15" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -2177,214 +2181,214 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="88"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="36" t="s">
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="41"/>
+      <c r="M4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="56"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="75"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
+      <c r="G6" s="80"/>
+      <c r="H6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="54" t="s">
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="81"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54" t="s">
+      <c r="G8" s="80"/>
+      <c r="H8" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="54" t="s">
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="55"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="81"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46" t="s">
+      <c r="G9" s="64"/>
+      <c r="H9" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="61"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="57" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="57" t="s">
+      <c r="G10" s="68"/>
+      <c r="H10" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="57" t="s">
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="62"/>
-      <c r="M10" s="58" t="s">
+      <c r="L10" s="69"/>
+      <c r="M10" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="62"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
@@ -2401,69 +2405,69 @@
       <c r="K12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="58" t="s">
+      <c r="M12" s="71"/>
+      <c r="N12" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="62"/>
+      <c r="O12" s="69"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="59"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="7"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="47"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="75"/>
     </row>
     <row r="14" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="75"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78"/>
     </row>
     <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="65"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
@@ -2472,27 +2476,27 @@
       <c r="B16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="76" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="76" t="s">
+      <c r="G16" s="52"/>
+      <c r="H16" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="51"/>
       <c r="K16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="80"/>
+      <c r="M16" s="54"/>
       <c r="N16" s="22" t="s">
         <v>42</v>
       </c>
@@ -2505,10 +2509,10 @@
         <v>44</v>
       </c>
       <c r="B17" s="23"/>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2516,16 +2520,16 @@
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="26"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="78"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2533,8 +2537,8 @@
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="78"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
     </row>
@@ -2543,10 +2547,10 @@
         <v>46</v>
       </c>
       <c r="B19" s="23"/>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="82"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -2554,16 +2558,18 @@
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="78"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
       <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+      <c r="O19" s="26" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2571,75 +2577,75 @@
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="78"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="84"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
     </row>
     <row r="22" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="29" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="85" t="s">
+      <c r="C22" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="85"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="31"/>
       <c r="F22" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="86" t="s">
+      <c r="G22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="35" t="s">
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="89"/>
+      <c r="G23" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="33"/>
@@ -2648,25 +2654,42 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:O23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
     <mergeCell ref="A15:O15"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -2681,42 +2704,25 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:O23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:K23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/assets/template.xlsx
+++ b/test/assets/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frontend\NPM\exceljs-xlsx-template\test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEE5DF-15C3-4678-B185-A2F86D8259EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2E6BA9-9461-4DBD-81D5-1A06E7168E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="6900" windowWidth="29040" windowHeight="15720" xr2:uid="{657964AE-D3D3-40C6-8F0A-0275CA7E1F85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t xml:space="preserve">中华人民共和国海关出口货物报关单  </t>
   </si>
@@ -170,9 +170,6 @@
     <t>征免</t>
   </si>
   <si>
-    <t>{{items.no}}</t>
-  </si>
-  <si>
     <t>{{items.name}}</t>
   </si>
   <si>
@@ -202,10 +199,15 @@
     <t>海关批注及签章</t>
   </si>
   <si>
+    <t xml:space="preserve">                                申报单位(签章){{#officialseal}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{items.no}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{{projects.image}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                申报单位(签章){{#officialseal}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1053,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2505,12 +2507,12 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>44</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="48" t="s">
-        <v>45</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="24"/>
@@ -2519,11 +2521,13 @@
       <c r="H17" s="26"/>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="26"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="50"/>
       <c r="M17" s="51"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="O17" s="26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
@@ -2543,15 +2547,15 @@
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="A19" s="23"/>
       <c r="B19" s="23"/>
       <c r="C19" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="49"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -2562,7 +2566,7 @@
       <c r="M19" s="51"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -2585,7 +2589,7 @@
     <row r="21" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
       <c r="B21" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
@@ -2603,26 +2607,26 @@
     </row>
     <row r="22" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="31"/>
       <c r="F22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="38" t="s">
         <v>51</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>52</v>
       </c>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
       <c r="K22" s="38"/>
       <c r="L22" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
@@ -2636,7 +2640,7 @@
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>

--- a/test/assets/template.xlsx
+++ b/test/assets/template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frontend\NPM\exceljs-xlsx-template\test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2E6BA9-9461-4DBD-81D5-1A06E7168E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6ECCB-19F5-44B4-B0D2-439449519460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6900" windowWidth="29040" windowHeight="15720" xr2:uid="{657964AE-D3D3-40C6-8F0A-0275CA7E1F85}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{657964AE-D3D3-40C6-8F0A-0275CA7E1F85}"/>
   </bookViews>
   <sheets>
     <sheet name="新报关单" sheetId="1" r:id="rId1"/>
+    <sheet name="INVOICE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t xml:space="preserve">中华人民共和国海关出口货物报关单  </t>
   </si>
@@ -208,6 +209,150 @@
   </si>
   <si>
     <t>{{projects.image}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             INVOICE
+</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292928"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Subtotal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292928"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Tax (20%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF292928"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GRAND TOTAL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF703FFE"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PAYMENT INFORMATION:</t>
+    </r>
+  </si>
+  <si>
+    <t>Bank Name:</t>
+  </si>
+  <si>
+    <t>Coding Puffin</t>
+  </si>
+  <si>
+    <t>Bank No:</t>
+  </si>
+  <si>
+    <t>123-XXX-7XX0</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>contact@Acme.fr</t>
+  </si>
+  <si>
+    <t>No. {{invoice_number}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF703FFE"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Invoice to:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">{{last_name}} {{first_name}} 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{{phone}}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Invoice Date:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{{invoice_date}}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{items.name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{items.unit_price}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{subtotal}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tax}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{grand_total}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -215,13 +360,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0&quot;€&quot;"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ &quot;XDR&quot;_-;\-* #,##0.00\ &quot;XDR&quot;_-;_-* &quot;-&quot;??\ &quot;XDR&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.00\ [$€-40C]_-;\-* #,##0.00\ [$€-40C]_-;_-* &quot;-&quot;??\ [$€-40C]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -282,16 +430,126 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="49.5"/>
+      <color rgb="FF703FFE"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF703FFE"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292928"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF703FFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -457,11 +715,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,6 +837,69 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,9 +1071,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{1BA818B7-43F2-45D8-B364-4658CF0A3691}"/>
+    <cellStyle name="超链接 2" xfId="3" xr:uid="{C9BB8F7B-932A-487A-8D96-F05BE6C922D8}"/>
+    <cellStyle name="货币 2" xfId="2" xr:uid="{0E5113A1-EDD6-46A0-98FF-8FD6E2142A62}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,6 +1107,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1970546</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>783862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B347CB6-E96E-4F94-9F31-FAF42CE237B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312965" y="378960"/>
+          <a:ext cx="1657581" cy="647790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2149,22 +2560,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
     </row>
     <row r="2" spans="1:15" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -2183,214 +2594,214 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="88"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89" t="s">
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="40" t="s">
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
+      <c r="N4" s="111"/>
+      <c r="O4" s="112"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="86"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="75"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="96"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80" t="s">
+      <c r="G6" s="101"/>
+      <c r="H6" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="80"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="80" t="s">
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="81"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="102"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="81"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="101"/>
+      <c r="H8" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="80" t="s">
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="102"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64" t="s">
+      <c r="G9" s="85"/>
+      <c r="H9" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="66"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="87"/>
     </row>
     <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="67" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="67" t="s">
+      <c r="G10" s="89"/>
+      <c r="H10" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="67" t="s">
+      <c r="I10" s="89"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="69"/>
-      <c r="M10" s="68" t="s">
+      <c r="L10" s="90"/>
+      <c r="M10" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="69"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="90"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="87"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
@@ -2407,69 +2818,69 @@
       <c r="K12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="70" t="s">
+      <c r="L12" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="71"/>
-      <c r="N12" s="68" t="s">
+      <c r="M12" s="92"/>
+      <c r="N12" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="69"/>
+      <c r="O12" s="90"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="72"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="7"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="75"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="96"/>
     </row>
     <row r="14" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="78"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
     </row>
     <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="78"/>
     </row>
     <row r="16" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
@@ -2478,27 +2889,27 @@
       <c r="B16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50" t="s">
+      <c r="D16" s="73"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="50" t="s">
+      <c r="G16" s="73"/>
+      <c r="H16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="51"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="L16" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="54"/>
+      <c r="M16" s="75"/>
       <c r="N16" s="22" t="s">
         <v>42</v>
       </c>
@@ -2511,10 +2922,10 @@
       <c r="B17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2522,8 +2933,8 @@
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26" t="s">
         <v>55</v>
@@ -2532,8 +2943,8 @@
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2541,18 +2952,18 @@
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="51"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="72"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="24" t="s">
         <v>46</v>
       </c>
@@ -2562,8 +2973,8 @@
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26" t="s">
         <v>55</v>
@@ -2572,8 +2983,8 @@
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2581,75 +2992,75 @@
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="51"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="72"/>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="57"/>
     </row>
     <row r="22" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="29" t="s">
         <v>48</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="31"/>
       <c r="F22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="39" t="s">
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
     </row>
     <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="33"/>
@@ -2732,4 +3143,168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8061E3FA-A786-48E0-917D-53F6B4B0E55B}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.75" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="70.1875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="23.0625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="31.9375" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="7.75" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="113"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+    </row>
+    <row r="2" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:3" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:3" ht="45.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.4" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="115"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="117"/>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="45"/>
+      <c r="C9" s="46"/>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="38"/>
+      <c r="B10" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="38"/>
+      <c r="B11" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="38"/>
+      <c r="B12" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="118"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B16" r:id="rId1" xr:uid="{E5245928-DBA0-43C8-A2FA-BB8BED418E04}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="170" orientation="portrait"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/test/assets/template.xlsx
+++ b/test/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frontend\NPM\exceljs-xlsx-template\test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F6ECCB-19F5-44B4-B0D2-439449519460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBEF7CD-D9F6-4A22-83B8-88D48251FCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{657964AE-D3D3-40C6-8F0A-0275CA7E1F85}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t xml:space="preserve">中华人民共和国海关出口货物报关单  </t>
   </si>
@@ -171,17 +171,6 @@
     <t>征免</t>
   </si>
   <si>
-    <t>{{items.name}}</t>
-  </si>
-  <si>
-    <t>{{projects.name}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{projects.description}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊关系确认： 否                    价格影响确认： 否           支付特许权使用费确认：否</t>
   </si>
   <si>
@@ -201,14 +190,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                申报单位(签章){{#officialseal}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{items.no}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{projects.image}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -336,14 +317,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{{items.name}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{items.unit_price}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{{subtotal}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -353,6 +326,30 @@
   </si>
   <si>
     <t>{{grand_total}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@items.no}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@items.name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@projects.image}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@projects.name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@projects.description}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@items.unit_price}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -900,6 +897,150 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,15 +1053,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -935,141 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2560,22 +2557,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -2594,214 +2591,214 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="109"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="110" t="s">
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61" t="s">
+      <c r="G4" s="57"/>
+      <c r="H4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="61" t="s">
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="111"/>
-      <c r="O4" s="112"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="107"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="96"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101" t="s">
+      <c r="G6" s="75"/>
+      <c r="H6" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="101" t="s">
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="102"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="105"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="81"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="73"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="100" t="s">
+      <c r="F8" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101" t="s">
+      <c r="G8" s="75"/>
+      <c r="H8" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="101" t="s">
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="76"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85" t="s">
+      <c r="G9" s="67"/>
+      <c r="H9" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="87"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="82"/>
     </row>
     <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="88" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="88" t="s">
+      <c r="G10" s="79"/>
+      <c r="H10" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="88" t="s">
+      <c r="I10" s="79"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="90"/>
-      <c r="M10" s="89" t="s">
+      <c r="L10" s="83"/>
+      <c r="M10" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="89"/>
-      <c r="O10" s="90"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="87"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="90"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
@@ -2818,69 +2815,69 @@
       <c r="K12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="91" t="s">
+      <c r="L12" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="92"/>
-      <c r="N12" s="89" t="s">
+      <c r="M12" s="91"/>
+      <c r="N12" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="90"/>
+      <c r="O12" s="83"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="93"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="7"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="96"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
     </row>
     <row r="14" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="99"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="96"/>
     </row>
     <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="78"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="86"/>
     </row>
     <row r="16" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
@@ -2889,27 +2886,27 @@
       <c r="B16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="71" t="s">
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="73"/>
-      <c r="H16" s="71" t="s">
+      <c r="G16" s="98"/>
+      <c r="H16" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="73"/>
-      <c r="J16" s="72"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="99"/>
       <c r="K16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="74" t="s">
+      <c r="L16" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="75"/>
+      <c r="M16" s="101"/>
       <c r="N16" s="22" t="s">
         <v>42</v>
       </c>
@@ -2920,12 +2917,12 @@
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="70"/>
+        <v>70</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="103"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2933,18 +2930,18 @@
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="99"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2952,20 +2949,20 @@
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="72"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="99"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="70"/>
+      <c r="C19" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="103"/>
       <c r="E19" s="24" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -2973,18 +2970,18 @@
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="99"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2992,75 +2989,75 @@
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="99"/>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="57"/>
+      <c r="B21" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="105"/>
     </row>
     <row r="22" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="58"/>
+      <c r="C22" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="106"/>
       <c r="E22" s="31"/>
       <c r="F22" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="62"/>
+        <v>47</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="58"/>
     </row>
     <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="66"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="65"/>
+      <c r="G23" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="110"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="33"/>
@@ -3069,42 +3066,25 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:O23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="A15:O15"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -3119,25 +3099,42 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="A14:O14"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:O23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3168,10 +3165,10 @@
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C2" s="38"/>
     </row>
@@ -3182,10 +3179,10 @@
     </row>
     <row r="4" spans="1:3" ht="45.4" x14ac:dyDescent="0.4">
       <c r="A4" s="40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C4" s="38"/>
     </row>
@@ -3201,19 +3198,19 @@
     </row>
     <row r="7" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B7" s="114" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C7" s="115"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="116" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="117"/>
     </row>
@@ -3224,61 +3221,61 @@
     <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="38"/>
       <c r="B10" s="47" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="38"/>
       <c r="B11" s="47" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="38"/>
       <c r="B12" s="47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="50" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="51" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C15" s="38"/>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="54" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C16" s="38"/>
     </row>

--- a/test/assets/template.xlsx
+++ b/test/assets/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Frontend\NPM\exceljs-xlsx-template\test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBEF7CD-D9F6-4A22-83B8-88D48251FCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35B5DBA-3D1E-405B-9040-0D8D6DF69DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{657964AE-D3D3-40C6-8F0A-0275CA7E1F85}"/>
   </bookViews>
@@ -271,6 +271,57 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Invoice Date:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>{{invoice_date}}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{subtotal}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{tax}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{grand_total}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@items.no}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@items.name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@projects.image}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@projects.name}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@projects.description}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{@@items.unit_price}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -288,7 +339,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">{{last_name}} {{first_name}} 
+      <t xml:space="preserve">{{user.first_name}} {{user.last_name}} 
 </t>
     </r>
     <r>
@@ -299,57 +350,6 @@
       </rPr>
       <t>{{phone}}</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Invoice Date:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>{{invoice_date}}</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{subtotal}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{tax}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{grand_total}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{@@items.no}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{@@items.name}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{@@projects.image}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{@@projects.name}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{@@projects.description}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{@@items.unit_price}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +431,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -516,7 +516,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -730,7 +730,7 @@
     <xf numFmtId="180" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,6 +897,21 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -906,168 +921,156 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1077,10 +1080,10 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="19" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1461,7 +1464,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2557,22 +2560,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
     </row>
     <row r="2" spans="1:15" ht="8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -2591,214 +2594,214 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="110"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63" t="s">
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="62"/>
+      <c r="H4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="57" t="s">
+      <c r="I4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59" t="s">
+      <c r="L4" s="63"/>
+      <c r="M4" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="60"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="113"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="77"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="97"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75" t="s">
+      <c r="G6" s="102"/>
+      <c r="H6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="75" t="s">
+      <c r="I6" s="102"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="76"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="103"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="73"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="82"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75" t="s">
+      <c r="G8" s="102"/>
+      <c r="H8" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="75" t="s">
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="76"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="103"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67" t="s">
+      <c r="G9" s="86"/>
+      <c r="H9" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="82"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="88"/>
     </row>
     <row r="10" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="78" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="78" t="s">
+      <c r="G10" s="90"/>
+      <c r="H10" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="78" t="s">
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="79" t="s">
+      <c r="L10" s="91"/>
+      <c r="M10" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="83"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="91"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="88"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="83"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="13" t="s">
         <v>26</v>
       </c>
@@ -2815,69 +2818,69 @@
       <c r="K12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="90" t="s">
+      <c r="L12" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="91"/>
-      <c r="N12" s="79" t="s">
+      <c r="M12" s="93"/>
+      <c r="N12" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="83"/>
+      <c r="O12" s="91"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="80"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="7"/>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="97"/>
     </row>
     <row r="14" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="100"/>
     </row>
     <row r="15" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="86"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="79"/>
     </row>
     <row r="16" spans="1:15" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
@@ -2886,27 +2889,27 @@
       <c r="B16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="97" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="97" t="s">
+      <c r="G16" s="74"/>
+      <c r="H16" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="73"/>
       <c r="K16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="100" t="s">
+      <c r="L16" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="101"/>
+      <c r="M16" s="76"/>
       <c r="N16" s="22" t="s">
         <v>42</v>
       </c>
@@ -2917,12 +2920,12 @@
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="103"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -2930,8 +2933,8 @@
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="99"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26" t="s">
         <v>72</v>
@@ -2940,8 +2943,8 @@
     <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
@@ -2949,20 +2952,20 @@
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
       <c r="K18" s="26"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="99"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23"/>
       <c r="B19" s="23"/>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -2970,18 +2973,18 @@
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
       <c r="K19" s="26"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="99"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
       <c r="B20" s="23"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
@@ -2989,75 +2992,75 @@
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
       <c r="K20" s="26"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="99"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
     </row>
     <row r="21" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5"/>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="105"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="58"/>
     </row>
     <row r="22" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="30"/>
-      <c r="C22" s="106" t="s">
+      <c r="C22" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="106"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="31"/>
       <c r="F22" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="107" t="s">
+      <c r="G22" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="56" t="s">
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="111"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="64" t="s">
+      <c r="G23" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="110"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="33"/>
@@ -3066,25 +3069,42 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:O23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:O10"/>
     <mergeCell ref="A15:O15"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -3099,42 +3119,25 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:O23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G23:K23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3159,9 +3162,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="113"/>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
+      <c r="A1" s="114"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
     </row>
     <row r="2" spans="1:3" ht="144" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="36" t="s">
@@ -3178,11 +3181,11 @@
       <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3" ht="45.4" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>66</v>
       </c>
       <c r="C4" s="38"/>
     </row>
@@ -3200,19 +3203,19 @@
       <c r="A7" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="115"/>
+      <c r="C7" s="116"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="117"/>
+        <v>70</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="118"/>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="45"/>
@@ -3224,7 +3227,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3233,7 +3236,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3242,7 +3245,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -3285,9 +3288,9 @@
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="118"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="4">
